--- a/medicine/Enfance/Olivier_Seigneur/Olivier_Seigneur.xlsx
+++ b/medicine/Enfance/Olivier_Seigneur/Olivier_Seigneur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Seigneur, né en juin 1956 à Paris, est un auteur français de roman policier et de littérature d'enfance et de jeunesse. Il a également signé Taiping Shangdi une série historique se déroulant dans la Chine des Qing.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études en droit, mais au lieu de devenir juriste, il devient rédacteur en chef d’une revue de l’administration française. 
 Son premier roman policier, Des lapins et des hommes, remporte le Prix du roman policier de Cognac 1994. Après quelques romans policiers humoristiques, il se lance dans le roman policier historique avec une première série se déroulant à la cour versaillaise de Louis XIV où les enquêtes criminelles prises en charge par Alexandre Bontemps, premier valet de chambre de Louis XIV, sont autant de prétextes à une description d'un monde en déclin.  
@@ -548,20 +562,142 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Une enquête de La Reynie
-La Marquise des poisons, Paris, Plon, 2018 ; réédition, Paris, 10/18, coll. « Grands Détectives » no 5438, 2019
-Série  La Cour de Louis XIV
-Les Dieux outragés, Paris, Édition du Masque, coll. « Labyrinthes » no 39, 1998
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Une enquête de La Reynie</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La Marquise des poisons, Paris, Plon, 2018 ; réédition, Paris, 10/18, coll. « Grands Détectives » no 5438, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre (sélection)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série  La Cour de Louis XIV</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Les Dieux outragés, Paris, Édition du Masque, coll. « Labyrinthes » no 39, 1998
 Le Vestibule du crime, Paris, Édition du Masque, coll. « Labyrinthes » no 51, 1999
 La Licorne assassinée, Paris, Édition du Masque, coll. « Labyrinthes » no 61, 1999
 Le Sang du Trianon, Paris, Édition du Masque, coll. « Labyrinthes » no 78, 2000
-La Religieuse de l’obscurité, Paris, Édition du Masque, 2000 ; réédition, Paris, J’ai lu no 6166, 2002
-Série Léonard, coiffeur de Marie-Antoinette
-L’Anneau de la reine, Paris, Flammarion, 2011
-Le Diable de Trianon, Paris, Flammarion, 2013
-Série Sourcil de Paon, dame de cour signée Taiping Shangdi
-La Sonate interdite, Paris, Librairie des Champs-Élysées, coll. « Labyrinthes » no 14, 1997
+La Religieuse de l’obscurité, Paris, Édition du Masque, 2000 ; réédition, Paris, J’ai lu no 6166, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre (sélection)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Léonard, coiffeur de Marie-Antoinette</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L’Anneau de la reine, Paris, Flammarion, 2011
+Le Diable de Trianon, Paris, Flammarion, 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre (sélection)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Sourcil de Paon, dame de cour signée Taiping Shangdi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La Sonate interdite, Paris, Librairie des Champs-Élysées, coll. « Labyrinthes » no 14, 1997
 La Noyée du palais d’été, Paris, Librairie des Champs-Élysées, coll. « Labyrinthes » no 21, 1997
 Le Prisonnier de l’océan, Paris, Librairie des Champs-Élysées, coll. « Labyrinthes » no 27, 1998
 Le Puits de la morte, Paris, Librairie des Champs-Élysées, coll. « Labyrinthes » no 34, 1998
@@ -573,9 +709,47 @@
 Le Palais de la splendeur pourpre, Paris, Éditions du Masque, coll. « Labyrinthes » no 90, 2001
 La Déchirure du papier huilé, Paris, Éditions du Masque, coll. « Labyrinthes » no 121, 2004
 La Porcelaine oubliée, Paris, Éditions du Masque, coll. « Labyrinthes » no 167, 2008
-Le Cheval parti en fumée, Paris, Éditions du Masque, coll. « Masque Poche » no 7, 2012
-Autres romans
-Des lapins et des hommes, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 2180, 1994
+Le Cheval parti en fumée, Paris, Éditions du Masque, coll. « Masque Poche » no 7, 2012</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre (sélection)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Des lapins et des hommes, Paris, Librairie des Champs-Élysées, coll. « Le Masque » no 2180, 1994
 Les ferrets sont éternels, Paris, Librairie des Champs-Élysées, Le Masque no 2273, 1996
 Zapping mortel, Paris, Librairie des Champs-Élysées, Le Masque no 965, 1997
 La Concubine ensevelie, Paris, Édition du Masque, coll. « Grands Formats », 1999
@@ -584,9 +758,47 @@
 Le Cinquième Roi de bronze, Paris, Édition du Masque, coll. « Grands Formats », 2002
 Dans l’ombre, les dragons de pierre, Paris, coll. « Flammarion noir », 2003
 L’Ombre du parasol d’or, Paris, Belfond, 2004
-Un Prince de sang. La Pompadour mène l’enquête, Paris, Marabout, 2016
-Romans de littérature d’enfance et de jeunesse
-Ba Jing le panda, Paris, Hachette, Le Livre de poche coll. « Carnet de bord » no 6300, 1989
+Un Prince de sang. La Pompadour mène l’enquête, Paris, Marabout, 2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre (sélection)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Romans de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Ba Jing le panda, Paris, Hachette, Le Livre de poche coll. « Carnet de bord » no 6300, 1989
 Auguste le manchot, Paris, Hachette, Le Livre de poche coll. « Carnet de bord » no 6303, 1989
 Kongo l’éléphant, Paris, Hachette, Le Livre de poche coll. « Carnet de bord » no 6305, 1989
 Gauthier le Gorille, Paris, Hachette, Le Livre de poche coll. « Carnet de bord » no 6308, 1990
@@ -596,14 +808,86 @@
 Le président de la République veut prendre un bain, Paris, Hachette jeunesse, Le Livre de poche coll. « Copain » no 6085, 1991
 Le président de la République part en croisière, Paris, Hachette jeunesse, Le Livre de poche coll. « Copain » no 6096, 1992
 Bal catastrophe chez Cendrillon, Paris, Hachette jeunesse, Le Livre de poche jeunesse no 611, 1997
-Les Aventures du président de la République, Paris, Hachette jeunesse, Le Livre de poche jeunesse no 773, 2002
-Autres publications de littérature d’enfance et de jeunesse
-Les Monstres font la fête, sous le nom de Frédéric Lord, Paris, Gautier-Languereau, 1993
+Les Aventures du président de la République, Paris, Hachette jeunesse, Le Livre de poche jeunesse no 773, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre (sélection)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Autres publications de littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les Monstres font la fête, sous le nom de Frédéric Lord, Paris, Gautier-Languereau, 1993
 Timothée et le dragon chinois, sous le nom de Frédéric Shangdi, Paris, Hatier, 1995
 Aramon le sanglier, sous le nom de Joseph Pujol, Paris, Hachette, 1998
-La Machine à remonter le temps, sous le nom d’Edgar Seigneur, Paris, Gautier-Languereau, 2002
-Divers
-Les Systèmes électoraux,  sous le nom de Frédéric Saint-Girons, Hachette, 1995
+La Machine à remonter le temps, sous le nom d’Edgar Seigneur, Paris, Gautier-Languereau, 2002</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre (sélection)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Divers</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Les Systèmes électoraux,  sous le nom de Frédéric Saint-Girons, Hachette, 1995
 Les Monarchies européennes, sous le nom de Frédéric Saint-Girons, Hachette, 1998
 1904-1905. Voyages du Baron Maurice de Rothschild en Afrique orientale, tirage limité, Paris, 2004
 Gitana. 100 ans de passion Rothschild, (en collaboration), Paris, Gitana SA, Hachette-Le Chêne, 2007
@@ -611,31 +895,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Olivier_Seigneur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Seigneur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Prix du roman policier de Cognac 1994 décerné à Des lapins et des hommes</t>
         </is>
